--- a/biology/Zoologie/Charinus_bruneti/Charinus_bruneti.xlsx
+++ b/biology/Zoologie/Charinus_bruneti/Charinus_bruneti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charinus bruneti est une espèce d'amblypyges de la famille des Charinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Saint-Barthélemy dans les Petites Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Saint-Barthélemy dans les Petites Antilles.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5,4 mm et le mâle paratype 3,9 mm[2].
-La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 1,60 mm de long sur 2,30 mm et celle de la femelle 2,20 mm de long sur 3,00 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5,4 mm et le mâle paratype 3,9 mm.
+La carapace du mâle décrit par Miranda, Giupponi, Prendini et Scharff en 2021 mesure 1,60 mm de long sur 2,30 mm et celle de la femelle 2,20 mm de long sur 3,00 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Brunet[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Brunet.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Teruel &amp; Questel, 2011 : « A new species of Charinus Simon 1892 (Amblypygi: Charinidae) from the Leeward Islands, Lesser Antilles. » Boletín de la Sociedad Entomológica Aragonesa, vol. 49, p. 15-18 (texte intégral).</t>
         </is>
